--- a/National/Hypothesis/Output/Detenciones/Tortura/hyp_tortura_fisica_traslado_RND_+-1_año.xlsx
+++ b/National/Hypothesis/Output/Detenciones/Tortura/hyp_tortura_fisica_traslado_RND_+-1_año.xlsx
@@ -63,7 +63,7 @@
     <t>hyp_tortura_fisica_traslado_RND_+-1_año</t>
   </si>
   <si>
-    <t>tortura_tra_p</t>
+    <t>target</t>
   </si>
   <si>
     <t>RND_3</t>
@@ -81,6 +81,9 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -181,9 +184,6 @@
   </si>
   <si>
     <t>Estado = 32</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
   <si>
     <t>Sexo = Femenino</t>
@@ -334,7 +334,7 @@
         <v>17</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6134378499440104</v>
+        <v>0.4123180291153424</v>
       </c>
       <c r="F2" t="n">
         <v>4465.0</v>
@@ -343,7 +343,7 @@
         <v>18</v>
       </c>
       <c r="H2" t="n">
-        <v>0.561965811965812</v>
+        <v>0.3831908831908826</v>
       </c>
       <c r="I2" t="n">
         <v>2808.0</v>
@@ -358,10 +358,10 @@
         <v>20</v>
       </c>
       <c r="M2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -388,7 +388,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -435,13 +435,13 @@
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6153846153846155</v>
+        <v>0.46153846153846145</v>
       </c>
       <c r="G2" t="n">
         <v>104.0</v>
@@ -450,7 +450,7 @@
         <v>18</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5517241379310344</v>
+        <v>0.39655172413793105</v>
       </c>
       <c r="J2" t="n">
         <v>116.0</v>
@@ -459,16 +459,16 @@
         <v>19</v>
       </c>
       <c r="L2" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="N2" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -482,13 +482,13 @@
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5361445783132527</v>
+        <v>0.2530120481927712</v>
       </c>
       <c r="G3" t="n">
         <v>166.0</v>
@@ -497,7 +497,7 @@
         <v>18</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5063291139240507</v>
+        <v>0.20253164556962028</v>
       </c>
       <c r="J3" t="n">
         <v>79.0</v>
@@ -506,16 +506,16 @@
         <v>19</v>
       </c>
       <c r="L3" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="M3" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="N3" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="O3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
@@ -529,13 +529,13 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5348837209302325</v>
+        <v>0.4651162790697675</v>
       </c>
       <c r="G4" t="n">
         <v>86.0</v>
@@ -544,7 +544,7 @@
         <v>18</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6285714285714286</v>
+        <v>0.3142857142857143</v>
       </c>
       <c r="J4" t="n">
         <v>35.0</v>
@@ -553,16 +553,16 @@
         <v>19</v>
       </c>
       <c r="L4" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="M4" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="N4" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="O4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
@@ -576,13 +576,13 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5789473684210527</v>
+        <v>0.3947368421052631</v>
       </c>
       <c r="G5" t="n">
         <v>38.0</v>
@@ -591,7 +591,7 @@
         <v>18</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.24242424242424246</v>
       </c>
       <c r="J5" t="n">
         <v>33.0</v>
@@ -600,16 +600,16 @@
         <v>19</v>
       </c>
       <c r="L5" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="M5" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="N5" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="O5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
@@ -623,13 +623,13 @@
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5572519083969466</v>
+        <v>0.4351145038167939</v>
       </c>
       <c r="G6" t="n">
         <v>131.0</v>
@@ -638,7 +638,7 @@
         <v>18</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5740740740740741</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="J6" t="n">
         <v>54.0</v>
@@ -647,16 +647,16 @@
         <v>19</v>
       </c>
       <c r="L6" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="M6" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="N6" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="O6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
@@ -670,13 +670,13 @@
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6444444444444445</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="G7" t="n">
         <v>45.0</v>
@@ -685,7 +685,7 @@
         <v>18</v>
       </c>
       <c r="I7" t="n">
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
       <c r="J7" t="n">
         <v>32.0</v>
@@ -694,16 +694,16 @@
         <v>19</v>
       </c>
       <c r="L7" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="M7" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="N7" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="O7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
@@ -717,13 +717,13 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
         <v>17</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6981132075471698</v>
+        <v>0.339622641509434</v>
       </c>
       <c r="G8" t="n">
         <v>53.0</v>
@@ -732,7 +732,7 @@
         <v>18</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6571428571428571</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="J8" t="n">
         <v>35.0</v>
@@ -741,16 +741,16 @@
         <v>19</v>
       </c>
       <c r="L8" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="M8" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="N8" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="O8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
@@ -764,13 +764,13 @@
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
         <v>17</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5217391304347826</v>
+        <v>0.30434782608695643</v>
       </c>
       <c r="G9" t="n">
         <v>253.0</v>
@@ -779,7 +779,7 @@
         <v>18</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5474137931034482</v>
+        <v>0.40948275862068967</v>
       </c>
       <c r="J9" t="n">
         <v>232.0</v>
@@ -788,16 +788,16 @@
         <v>19</v>
       </c>
       <c r="L9" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="M9" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="N9" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="O9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
@@ -811,13 +811,13 @@
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
         <v>17</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6274509803921569</v>
+        <v>0.3529411764705882</v>
       </c>
       <c r="G10" t="n">
         <v>102.0</v>
@@ -826,7 +826,7 @@
         <v>18</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5844155844155845</v>
+        <v>0.28571428571428575</v>
       </c>
       <c r="J10" t="n">
         <v>77.0</v>
@@ -835,16 +835,16 @@
         <v>19</v>
       </c>
       <c r="L10" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="M10" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="N10" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="O10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
@@ -858,13 +858,13 @@
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
         <v>17</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2243589743589743</v>
+        <v>0.08974358974358976</v>
       </c>
       <c r="G11" t="n">
         <v>156.0</v>
@@ -873,7 +873,7 @@
         <v>18</v>
       </c>
       <c r="I11" t="n">
-        <v>0.18791946308724833</v>
+        <v>0.10738255033557048</v>
       </c>
       <c r="J11" t="n">
         <v>149.0</v>
@@ -882,16 +882,16 @@
         <v>19</v>
       </c>
       <c r="L11" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="M11" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="N11" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="O11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
@@ -905,13 +905,13 @@
         <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
         <v>17</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5055555555555555</v>
+        <v>0.3555555555555555</v>
       </c>
       <c r="G12" t="n">
         <v>180.0</v>
@@ -920,7 +920,7 @@
         <v>18</v>
       </c>
       <c r="I12" t="n">
-        <v>0.49019607843137253</v>
+        <v>0.39869281045751637</v>
       </c>
       <c r="J12" t="n">
         <v>153.0</v>
@@ -929,16 +929,16 @@
         <v>19</v>
       </c>
       <c r="L12" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="M12" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="N12" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="O12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
@@ -952,13 +952,13 @@
         <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E13" t="s">
         <v>17</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7529411764705882</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="G13" t="n">
         <v>85.0</v>
@@ -967,7 +967,7 @@
         <v>18</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9142857142857144</v>
+        <v>0.7285714285714285</v>
       </c>
       <c r="J13" t="n">
         <v>70.0</v>
@@ -979,13 +979,13 @@
         <v>20</v>
       </c>
       <c r="M13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14">
@@ -999,13 +999,13 @@
         <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E14" t="s">
         <v>17</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6276595744680851</v>
+        <v>0.425531914893617</v>
       </c>
       <c r="G14" t="n">
         <v>94.0</v>
@@ -1014,7 +1014,7 @@
         <v>18</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5714285714285715</v>
+        <v>0.2619047619047619</v>
       </c>
       <c r="J14" t="n">
         <v>42.0</v>
@@ -1023,16 +1023,16 @@
         <v>19</v>
       </c>
       <c r="L14" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="M14" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="N14" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="O14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15">
@@ -1046,13 +1046,13 @@
         <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E15" t="s">
         <v>17</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5308641975308641</v>
+        <v>0.3456790123456791</v>
       </c>
       <c r="G15" t="n">
         <v>81.0</v>
@@ -1061,7 +1061,7 @@
         <v>18</v>
       </c>
       <c r="I15" t="n">
-        <v>0.36111111111111105</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="J15" t="n">
         <v>36.0</v>
@@ -1070,16 +1070,16 @@
         <v>19</v>
       </c>
       <c r="L15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M15" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="N15" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="O15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16">
@@ -1093,13 +1093,13 @@
         <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E16" t="s">
         <v>17</v>
       </c>
       <c r="F16" t="n">
-        <v>0.766696349065004</v>
+        <v>0.5707925200356196</v>
       </c>
       <c r="G16" t="n">
         <v>1123.0</v>
@@ -1108,7 +1108,7 @@
         <v>18</v>
       </c>
       <c r="I16" t="n">
-        <v>0.7557003257328989</v>
+        <v>0.5439739413680782</v>
       </c>
       <c r="J16" t="n">
         <v>307.0</v>
@@ -1117,16 +1117,16 @@
         <v>19</v>
       </c>
       <c r="L16" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="M16" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="N16" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="O16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17">
@@ -1140,13 +1140,13 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E17" t="s">
         <v>17</v>
       </c>
       <c r="F17" t="n">
-        <v>0.6206896551724138</v>
+        <v>0.3448275862068966</v>
       </c>
       <c r="G17" t="n">
         <v>29.0</v>
@@ -1155,7 +1155,7 @@
         <v>18</v>
       </c>
       <c r="I17" t="n">
-        <v>0.6</v>
+        <v>0.36000000000000004</v>
       </c>
       <c r="J17" t="n">
         <v>25.0</v>
@@ -1164,16 +1164,16 @@
         <v>19</v>
       </c>
       <c r="L17" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="M17" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="N17" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="O17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18">
@@ -1187,13 +1187,13 @@
         <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E18" t="s">
         <v>17</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6363636363636365</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="G18" t="n">
         <v>77.0</v>
@@ -1211,16 +1211,16 @@
         <v>19</v>
       </c>
       <c r="L18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N18" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="O18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19">
@@ -1234,13 +1234,13 @@
         <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E19" t="s">
         <v>17</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3368421052631579</v>
+        <v>0.1368421052631579</v>
       </c>
       <c r="G19" t="n">
         <v>95.0</v>
@@ -1249,7 +1249,7 @@
         <v>18</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2545454545454546</v>
+        <v>0.1636363636363637</v>
       </c>
       <c r="J19" t="n">
         <v>55.0</v>
@@ -1258,16 +1258,16 @@
         <v>19</v>
       </c>
       <c r="L19" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="M19" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="N19" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="O19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20">
@@ -1281,13 +1281,13 @@
         <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E20" t="s">
         <v>17</v>
       </c>
       <c r="F20" t="n">
-        <v>0.6167400881057268</v>
+        <v>0.44933920704845814</v>
       </c>
       <c r="G20" t="n">
         <v>227.0</v>
@@ -1296,7 +1296,7 @@
         <v>18</v>
       </c>
       <c r="I20" t="n">
-        <v>0.5272727272727272</v>
+        <v>0.38181818181818183</v>
       </c>
       <c r="J20" t="n">
         <v>165.0</v>
@@ -1305,16 +1305,16 @@
         <v>19</v>
       </c>
       <c r="L20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M20" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="N20" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="O20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21">
@@ -1328,13 +1328,13 @@
         <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E21" t="s">
         <v>17</v>
       </c>
       <c r="F21" t="n">
-        <v>0.5421686746987951</v>
+        <v>0.30120481927710846</v>
       </c>
       <c r="G21" t="n">
         <v>83.0</v>
@@ -1343,7 +1343,7 @@
         <v>18</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3571428571428571</v>
+        <v>0.2321428571428571</v>
       </c>
       <c r="J21" t="n">
         <v>56.0</v>
@@ -1352,16 +1352,16 @@
         <v>19</v>
       </c>
       <c r="L21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N21" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="O21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22">
@@ -1375,13 +1375,13 @@
         <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E22" t="s">
         <v>17</v>
       </c>
       <c r="F22" t="n">
-        <v>0.6086956521739131</v>
+        <v>0.30434782608695654</v>
       </c>
       <c r="G22" t="n">
         <v>46.0</v>
@@ -1390,7 +1390,7 @@
         <v>18</v>
       </c>
       <c r="I22" t="n">
-        <v>0.4761904761904761</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="J22" t="n">
         <v>21.0</v>
@@ -1399,16 +1399,16 @@
         <v>19</v>
       </c>
       <c r="L22" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="M22" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="N22" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="O22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23">
@@ -1422,13 +1422,13 @@
         <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E23" t="s">
         <v>17</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6222222222222222</v>
+        <v>0.40740740740740733</v>
       </c>
       <c r="G23" t="n">
         <v>135.0</v>
@@ -1437,7 +1437,7 @@
         <v>18</v>
       </c>
       <c r="I23" t="n">
-        <v>0.6956521739130437</v>
+        <v>0.532608695652174</v>
       </c>
       <c r="J23" t="n">
         <v>184.0</v>
@@ -1446,16 +1446,16 @@
         <v>19</v>
       </c>
       <c r="L23" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="M23" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="N23" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="O23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
@@ -1469,13 +1469,13 @@
         <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E24" t="s">
         <v>17</v>
       </c>
       <c r="F24" t="n">
-        <v>0.6493506493506493</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="G24" t="n">
         <v>77.0</v>
@@ -1484,7 +1484,7 @@
         <v>18</v>
       </c>
       <c r="I24" t="n">
-        <v>0.6086956521739131</v>
+        <v>0.39130434782608703</v>
       </c>
       <c r="J24" t="n">
         <v>46.0</v>
@@ -1493,16 +1493,16 @@
         <v>19</v>
       </c>
       <c r="L24" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="M24" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="N24" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="O24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25">
@@ -1516,13 +1516,13 @@
         <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E25" t="s">
         <v>17</v>
       </c>
       <c r="F25" t="n">
-        <v>0.4716981132075472</v>
+        <v>0.3207547169811321</v>
       </c>
       <c r="G25" t="n">
         <v>53.0</v>
@@ -1531,7 +1531,7 @@
         <v>18</v>
       </c>
       <c r="I25" t="n">
-        <v>0.5789473684210527</v>
+        <v>0.21052631578947367</v>
       </c>
       <c r="J25" t="n">
         <v>19.0</v>
@@ -1540,16 +1540,16 @@
         <v>19</v>
       </c>
       <c r="L25" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="M25" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="N25" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="O25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26">
@@ -1563,13 +1563,13 @@
         <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E26" t="s">
         <v>17</v>
       </c>
       <c r="F26" t="n">
-        <v>0.5408163265306123</v>
+        <v>0.28571428571428575</v>
       </c>
       <c r="G26" t="n">
         <v>98.0</v>
@@ -1578,7 +1578,7 @@
         <v>18</v>
       </c>
       <c r="I26" t="n">
-        <v>0.34</v>
+        <v>0.08</v>
       </c>
       <c r="J26" t="n">
         <v>50.0</v>
@@ -1593,10 +1593,10 @@
         <v>20</v>
       </c>
       <c r="N26" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="O26" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27">
@@ -1610,13 +1610,13 @@
         <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E27" t="s">
         <v>17</v>
       </c>
       <c r="F27" t="n">
-        <v>0.5769230769230771</v>
+        <v>0.30528846153846145</v>
       </c>
       <c r="G27" t="n">
         <v>416.0</v>
@@ -1625,7 +1625,7 @@
         <v>18</v>
       </c>
       <c r="I27" t="n">
-        <v>0.5487179487179488</v>
+        <v>0.28717948717948716</v>
       </c>
       <c r="J27" t="n">
         <v>390.0</v>
@@ -1634,16 +1634,16 @@
         <v>19</v>
       </c>
       <c r="L27" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="M27" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="N27" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="O27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28">
@@ -1657,13 +1657,13 @@
         <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E28" t="s">
         <v>17</v>
       </c>
       <c r="F28" t="n">
-        <v>0.5625</v>
+        <v>0.39583333333333337</v>
       </c>
       <c r="G28" t="n">
         <v>96.0</v>
@@ -1672,7 +1672,7 @@
         <v>18</v>
       </c>
       <c r="I28" t="n">
-        <v>0.6119402985074626</v>
+        <v>0.41791044776119407</v>
       </c>
       <c r="J28" t="n">
         <v>67.0</v>
@@ -1681,16 +1681,16 @@
         <v>19</v>
       </c>
       <c r="L28" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="M28" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="N28" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="O28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29">
@@ -1704,13 +1704,13 @@
         <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E29" t="s">
         <v>17</v>
       </c>
       <c r="F29" t="n">
-        <v>0.5652173913043479</v>
+        <v>0.34782608695652184</v>
       </c>
       <c r="G29" t="n">
         <v>46.0</v>
@@ -1719,7 +1719,7 @@
         <v>18</v>
       </c>
       <c r="I29" t="n">
-        <v>0.717948717948718</v>
+        <v>0.5897435897435896</v>
       </c>
       <c r="J29" t="n">
         <v>39.0</v>
@@ -1728,16 +1728,16 @@
         <v>19</v>
       </c>
       <c r="L29" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="M29" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="N29" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="O29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30">
@@ -1751,13 +1751,13 @@
         <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E30" t="s">
         <v>17</v>
       </c>
       <c r="F30" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="G30" t="n">
         <v>30.0</v>
@@ -1766,7 +1766,7 @@
         <v>18</v>
       </c>
       <c r="I30" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="J30" t="n">
         <v>26.0</v>
@@ -1775,16 +1775,16 @@
         <v>19</v>
       </c>
       <c r="L30" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="M30" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="N30" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="O30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31">
@@ -1798,13 +1798,13 @@
         <v>16</v>
       </c>
       <c r="D31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E31" t="s">
         <v>17</v>
       </c>
       <c r="F31" t="n">
-        <v>0.7096774193548387</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="G31" t="n">
         <v>62.0</v>
@@ -1813,7 +1813,7 @@
         <v>18</v>
       </c>
       <c r="I31" t="n">
-        <v>0.6551724137931034</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="J31" t="n">
         <v>29.0</v>
@@ -1822,16 +1822,16 @@
         <v>19</v>
       </c>
       <c r="L31" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="M31" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="N31" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="O31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32">
@@ -1845,13 +1845,13 @@
         <v>16</v>
       </c>
       <c r="D32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E32" t="s">
         <v>17</v>
       </c>
       <c r="F32" t="n">
-        <v>0.7586206896551724</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="G32" t="n">
         <v>29.0</v>
@@ -1860,7 +1860,7 @@
         <v>18</v>
       </c>
       <c r="I32" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="J32" t="n">
         <v>13.0</v>
@@ -1869,16 +1869,16 @@
         <v>19</v>
       </c>
       <c r="L32" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="M32" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="N32" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="O32" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33">
@@ -1892,13 +1892,13 @@
         <v>16</v>
       </c>
       <c r="D33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E33" t="s">
         <v>17</v>
       </c>
       <c r="F33" t="n">
-        <v>0.5976331360946744</v>
+        <v>0.46153846153846145</v>
       </c>
       <c r="G33" t="n">
         <v>169.0</v>
@@ -1907,7 +1907,7 @@
         <v>18</v>
       </c>
       <c r="I33" t="n">
-        <v>0.5657894736842104</v>
+        <v>0.493421052631579</v>
       </c>
       <c r="J33" t="n">
         <v>152.0</v>
@@ -1916,16 +1916,16 @@
         <v>19</v>
       </c>
       <c r="L33" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="M33" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="N33" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="O33" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1952,7 +1952,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -2005,7 +2005,7 @@
         <v>17</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6355140186915886</v>
+        <v>0.3457943925233647</v>
       </c>
       <c r="G2" t="n">
         <v>749.0</v>
@@ -2014,7 +2014,7 @@
         <v>18</v>
       </c>
       <c r="I2" t="n">
-        <v>0.562390158172232</v>
+        <v>0.3110720562390157</v>
       </c>
       <c r="J2" t="n">
         <v>569.0</v>
@@ -2023,16 +2023,16 @@
         <v>19</v>
       </c>
       <c r="L2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -2052,7 +2052,7 @@
         <v>17</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6089881593110876</v>
+        <v>0.4257265877287398</v>
       </c>
       <c r="G3" t="n">
         <v>3716.0</v>
@@ -2061,7 +2061,7 @@
         <v>18</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5618579723090669</v>
+        <v>0.4015185350602948</v>
       </c>
       <c r="J3" t="n">
         <v>2239.0</v>
@@ -2073,13 +2073,13 @@
         <v>20</v>
       </c>
       <c r="M3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2106,7 +2106,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -2159,7 +2159,7 @@
         <v>17</v>
       </c>
       <c r="F2" t="n">
-        <v>0.75</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G2" t="n">
         <v>24.0</v>
@@ -2168,7 +2168,7 @@
         <v>18</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8348623853211009</v>
+        <v>0.6788990825688074</v>
       </c>
       <c r="J2" t="n">
         <v>109.0</v>
@@ -2177,16 +2177,16 @@
         <v>19</v>
       </c>
       <c r="L2" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="N2" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -2206,7 +2206,7 @@
         <v>17</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6021098187719763</v>
+        <v>0.41763592101704267</v>
       </c>
       <c r="G3" t="n">
         <v>3697.0</v>
@@ -2215,7 +2215,7 @@
         <v>18</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5151515151515148</v>
+        <v>0.35214211076280083</v>
       </c>
       <c r="J3" t="n">
         <v>1914.0</v>
@@ -2233,7 +2233,7 @@
         <v>20</v>
       </c>
       <c r="O3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
@@ -2253,7 +2253,7 @@
         <v>17</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6653225806451611</v>
+        <v>0.38037634408602167</v>
       </c>
       <c r="G4" t="n">
         <v>744.0</v>
@@ -2262,7 +2262,7 @@
         <v>18</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6382165605095542</v>
+        <v>0.4178343949044586</v>
       </c>
       <c r="J4" t="n">
         <v>785.0</v>
@@ -2271,16 +2271,16 @@
         <v>19</v>
       </c>
       <c r="L4" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="M4" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="N4" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="O4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2307,7 +2307,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -2360,7 +2360,7 @@
         <v>17</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6399999999999999</v>
+        <v>0.32799999999999996</v>
       </c>
       <c r="G2" t="n">
         <v>125.0</v>
@@ -2369,7 +2369,7 @@
         <v>18</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.31313131313131315</v>
       </c>
       <c r="J2" t="n">
         <v>99.0</v>
@@ -2378,16 +2378,16 @@
         <v>19</v>
       </c>
       <c r="L2" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="N2" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -2407,7 +2407,7 @@
         <v>17</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6551724137931034</v>
+        <v>0.3793103448275862</v>
       </c>
       <c r="G3" t="n">
         <v>29.0</v>
@@ -2416,7 +2416,7 @@
         <v>18</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6271186440677965</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="J3" t="n">
         <v>118.0</v>
@@ -2425,16 +2425,16 @@
         <v>19</v>
       </c>
       <c r="L3" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="M3" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="N3" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="O3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
@@ -2454,7 +2454,7 @@
         <v>17</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7727272727272728</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="G4" t="n">
         <v>154.0</v>
@@ -2463,7 +2463,7 @@
         <v>18</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7603305785123966</v>
+        <v>0.5950413223140496</v>
       </c>
       <c r="J4" t="n">
         <v>121.0</v>
@@ -2472,16 +2472,16 @@
         <v>19</v>
       </c>
       <c r="L4" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="M4" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="N4" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="O4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
@@ -2501,7 +2501,7 @@
         <v>17</v>
       </c>
       <c r="F5" t="n">
-        <v>0.18881118881118875</v>
+        <v>0.09790209790209796</v>
       </c>
       <c r="G5" t="n">
         <v>143.0</v>
@@ -2510,7 +2510,7 @@
         <v>18</v>
       </c>
       <c r="I5" t="n">
-        <v>0.11290322580645164</v>
+        <v>0.06451612903225809</v>
       </c>
       <c r="J5" t="n">
         <v>62.0</v>
@@ -2519,16 +2519,16 @@
         <v>19</v>
       </c>
       <c r="L5" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="M5" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="N5" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="O5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
@@ -2548,7 +2548,7 @@
         <v>17</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6758321273516642</v>
+        <v>0.4920405209840813</v>
       </c>
       <c r="G6" t="n">
         <v>691.0</v>
@@ -2557,7 +2557,7 @@
         <v>18</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6876267748478702</v>
+        <v>0.5212981744421908</v>
       </c>
       <c r="J6" t="n">
         <v>493.0</v>
@@ -2566,16 +2566,16 @@
         <v>19</v>
       </c>
       <c r="L6" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="M6" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="N6" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="O6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
@@ -2595,7 +2595,7 @@
         <v>17</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5715396578538098</v>
+        <v>0.3662519440124425</v>
       </c>
       <c r="G7" t="n">
         <v>1286.0</v>
@@ -2604,7 +2604,7 @@
         <v>18</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4612129760225669</v>
+        <v>0.2919605077574048</v>
       </c>
       <c r="J7" t="n">
         <v>709.0</v>
@@ -2622,7 +2622,7 @@
         <v>20</v>
       </c>
       <c r="O7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
@@ -2642,7 +2642,7 @@
         <v>17</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6380952380952383</v>
+        <v>0.39999999999999997</v>
       </c>
       <c r="G8" t="n">
         <v>210.0</v>
@@ -2651,7 +2651,7 @@
         <v>18</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5258620689655172</v>
+        <v>0.31034482758620696</v>
       </c>
       <c r="J8" t="n">
         <v>116.0</v>
@@ -2660,16 +2660,16 @@
         <v>19</v>
       </c>
       <c r="L8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M8" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="N8" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="O8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
@@ -2689,7 +2689,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6633597883597879</v>
+        <v>0.47817460317460286</v>
       </c>
       <c r="G9" t="n">
         <v>1512.0</v>
@@ -2698,7 +2698,7 @@
         <v>18</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6019845644983463</v>
+        <v>0.43329658213891964</v>
       </c>
       <c r="J9" t="n">
         <v>907.0</v>
@@ -2713,10 +2713,10 @@
         <v>20</v>
       </c>
       <c r="N9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
@@ -2736,7 +2736,7 @@
         <v>17</v>
       </c>
       <c r="F10" t="n">
-        <v>0.634453781512605</v>
+        <v>0.26470588235294124</v>
       </c>
       <c r="G10" t="n">
         <v>238.0</v>
@@ -2745,7 +2745,7 @@
         <v>18</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5746268656716418</v>
+        <v>0.2686567164179105</v>
       </c>
       <c r="J10" t="n">
         <v>134.0</v>
@@ -2754,279 +2754,19 @@
         <v>19</v>
       </c>
       <c r="L10" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="M10" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="N10" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="O10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100062359308C733147A209A9423741ABB1" ma:contentTypeVersion="16" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="46cc87e7723544f0ef0a90085231f4be">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d2d4c2ad-b63f-415b-82f0-3296fc2966de" xmlns:ns3="69276225-f05c-44c5-92dc-c999460a4149" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e9cd408853cc4d95ae2a27577a971dd5" ns2:_="" ns3:_="">
-    <xsd:import namespace="d2d4c2ad-b63f-415b-82f0-3296fc2966de"/>
-    <xsd:import namespace="69276225-f05c-44c5-92dc-c999460a4149"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d2d4c2ad-b63f-415b-82f0-3296fc2966de" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="15" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="c40d4899-0986-466d-9443-4d7b8518a0f2" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="19" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="20" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="21" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="69276225-f05c-44c5-92dc-c999460a4149" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="16" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{32d65da7-472f-44c6-be22-218d2da46f49}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="69276225-f05c-44c5-92dc-c999460a4149">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithUsers" ma:index="22" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="23" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E888F16C-B195-4442-9F7C-F02FD5CADE4E}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE354891-05C5-4F92-AE3A-D7AE54FDD066}"/>
 </file>
--- a/National/Hypothesis/Output/Detenciones/Tortura/hyp_tortura_fisica_traslado_RND_+-1_año.xlsx
+++ b/National/Hypothesis/Output/Detenciones/Tortura/hyp_tortura_fisica_traslado_RND_+-1_año.xlsx
@@ -2769,4 +2769,264 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100062359308C733147A209A9423741ABB1" ma:contentTypeVersion="16" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="46cc87e7723544f0ef0a90085231f4be">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d2d4c2ad-b63f-415b-82f0-3296fc2966de" xmlns:ns3="69276225-f05c-44c5-92dc-c999460a4149" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e9cd408853cc4d95ae2a27577a971dd5" ns2:_="" ns3:_="">
+    <xsd:import namespace="d2d4c2ad-b63f-415b-82f0-3296fc2966de"/>
+    <xsd:import namespace="69276225-f05c-44c5-92dc-c999460a4149"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d2d4c2ad-b63f-415b-82f0-3296fc2966de" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="15" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="c40d4899-0986-466d-9443-4d7b8518a0f2" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="19" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="20" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="21" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="69276225-f05c-44c5-92dc-c999460a4149" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="16" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{32d65da7-472f-44c6-be22-218d2da46f49}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="69276225-f05c-44c5-92dc-c999460a4149">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="22" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="23" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F86E4F24-E02C-49ED-BA9B-B327C8F7D46F}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1B1BE85-8BFB-4812-ACEF-01F70FF4C282}"/>
 </file>
--- a/National/Hypothesis/Output/Detenciones/Tortura/hyp_tortura_fisica_traslado_RND_+-1_año.xlsx
+++ b/National/Hypothesis/Output/Detenciones/Tortura/hyp_tortura_fisica_traslado_RND_+-1_año.xlsx
@@ -2769,264 +2769,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100062359308C733147A209A9423741ABB1" ma:contentTypeVersion="16" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="46cc87e7723544f0ef0a90085231f4be">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d2d4c2ad-b63f-415b-82f0-3296fc2966de" xmlns:ns3="69276225-f05c-44c5-92dc-c999460a4149" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e9cd408853cc4d95ae2a27577a971dd5" ns2:_="" ns3:_="">
-    <xsd:import namespace="d2d4c2ad-b63f-415b-82f0-3296fc2966de"/>
-    <xsd:import namespace="69276225-f05c-44c5-92dc-c999460a4149"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d2d4c2ad-b63f-415b-82f0-3296fc2966de" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="15" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="c40d4899-0986-466d-9443-4d7b8518a0f2" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="19" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="20" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="21" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="69276225-f05c-44c5-92dc-c999460a4149" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="16" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{32d65da7-472f-44c6-be22-218d2da46f49}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="69276225-f05c-44c5-92dc-c999460a4149">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithUsers" ma:index="22" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="23" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F86E4F24-E02C-49ED-BA9B-B327C8F7D46F}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1B1BE85-8BFB-4812-ACEF-01F70FF4C282}"/>
 </file>
--- a/National/Hypothesis/Output/Detenciones/Tortura/hyp_tortura_fisica_traslado_RND_+-1_año.xlsx
+++ b/National/Hypothesis/Output/Detenciones/Tortura/hyp_tortura_fisica_traslado_RND_+-1_año.xlsx
@@ -2769,4 +2769,264 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100062359308C733147A209A9423741ABB1" ma:contentTypeVersion="16" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="46cc87e7723544f0ef0a90085231f4be">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d2d4c2ad-b63f-415b-82f0-3296fc2966de" xmlns:ns3="69276225-f05c-44c5-92dc-c999460a4149" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e9cd408853cc4d95ae2a27577a971dd5" ns2:_="" ns3:_="">
+    <xsd:import namespace="d2d4c2ad-b63f-415b-82f0-3296fc2966de"/>
+    <xsd:import namespace="69276225-f05c-44c5-92dc-c999460a4149"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d2d4c2ad-b63f-415b-82f0-3296fc2966de" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="15" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="c40d4899-0986-466d-9443-4d7b8518a0f2" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="19" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="20" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="21" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="69276225-f05c-44c5-92dc-c999460a4149" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="16" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{32d65da7-472f-44c6-be22-218d2da46f49}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="69276225-f05c-44c5-92dc-c999460a4149">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="22" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="23" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6CC2F0F-FCEB-47F8-A5EA-7CBFE9D6C157}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{348FBF7F-0DC7-4B88-85E8-DB812D7A8109}"/>
 </file>